--- a/DATASET/DATA FIXXX.xlsx
+++ b/DATASET/DATA FIXXX.xlsx
@@ -3836,8 +3836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N900"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
